--- a/Data/EC/NIT-9004531512.xlsx
+++ b/Data/EC/NIT-9004531512.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{847F5C4F-7AC4-4D09-8D63-AEEEFB469309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF0E49B-273A-405C-8B79-8D6F24C0DE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4C1FCAF1-51E8-4C9D-8B2D-1FDD4FCEC3CE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D4BF5286-F6F3-4DE0-A6A4-AAC7D5FC7FE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,106 +65,73 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143406749</t>
+  </si>
+  <si>
+    <t>RONALD DAVID DELGADO SARMIENTO</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
     <t>73079336</t>
   </si>
   <si>
     <t>EDGAR LUIS DELGADO THORRENS</t>
   </si>
   <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
     <t>2011</t>
   </si>
   <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>1143406749</t>
-  </si>
-  <si>
-    <t>RONALD DAVID DELGADO SARMIENTO</t>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
   </si>
   <si>
     <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>9004531512</t>
-  </si>
-  <si>
-    <t>1403</t>
-  </si>
-  <si>
-    <t>1402</t>
-  </si>
-  <si>
-    <t>1401</t>
-  </si>
-  <si>
-    <t>1312</t>
-  </si>
-  <si>
-    <t>1311</t>
-  </si>
-  <si>
-    <t>1310</t>
-  </si>
-  <si>
-    <t>1309</t>
-  </si>
-  <si>
-    <t>1308</t>
-  </si>
-  <si>
-    <t>1307</t>
-  </si>
-  <si>
-    <t>1306</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -263,7 +230,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -276,9 +245,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -478,23 +445,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -522,10 +489,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C271A46-6A2B-9AAC-68E4-E25C4AA0B311}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7748E4-3A94-C00F-6B47-BEB4457A62EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,8 +896,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF60EFD-5652-486C-B498-7912A8AFDA95}">
-  <dimension ref="B2:J56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554DE753-DBBA-49F7-8C8F-3F0391542A1B}">
+  <dimension ref="B2:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -954,7 +921,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -999,7 +966,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1031,12 +998,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>881514</v>
+        <v>842214</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1047,17 +1014,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1084,13 +1051,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1107,7 +1074,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1130,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>877803</v>
@@ -1153,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>877803</v>
@@ -1176,7 +1143,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>877803</v>
@@ -1199,7 +1166,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>877803</v>
@@ -1222,7 +1189,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>877803</v>
@@ -1236,16 +1203,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F22" s="18">
-        <v>30430</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>877803</v>
@@ -1259,16 +1226,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F23" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>877803</v>
@@ -1282,10 +1249,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>21</v>
@@ -1305,13 +1272,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1328,13 +1295,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1351,13 +1318,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>35112</v>
@@ -1374,13 +1341,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
@@ -1397,13 +1364,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
@@ -1420,13 +1387,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
@@ -1443,13 +1410,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F31" s="18">
         <v>35112</v>
@@ -1466,13 +1433,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
         <v>35112</v>
@@ -1489,16 +1456,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G33" s="18">
         <v>877803</v>
@@ -1512,16 +1479,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G34" s="18">
         <v>877803</v>
@@ -1535,16 +1502,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G35" s="18">
         <v>877803</v>
@@ -1558,16 +1525,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G36" s="18">
         <v>877803</v>
@@ -1581,16 +1548,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G37" s="18">
         <v>877803</v>
@@ -1604,16 +1571,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G38" s="18">
         <v>877803</v>
@@ -1627,16 +1594,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G39" s="18">
         <v>877803</v>
@@ -1646,266 +1613,56 @@
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="16" t="s">
+      <c r="B40" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G40" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" s="18">
-        <v>3930</v>
-      </c>
-      <c r="G41" s="18">
-        <v>0</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="18">
-        <v>3930</v>
-      </c>
-      <c r="G42" s="18">
-        <v>0</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="18">
-        <v>3930</v>
-      </c>
-      <c r="G43" s="18">
-        <v>0</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F44" s="18">
-        <v>3930</v>
-      </c>
-      <c r="G44" s="18">
-        <v>0</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F40" s="24">
+        <v>30430</v>
+      </c>
+      <c r="G40" s="24">
+        <v>877803</v>
+      </c>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F45" s="18">
-        <v>3930</v>
-      </c>
-      <c r="G45" s="18">
-        <v>0</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="B45" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="H45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="18">
-        <v>3930</v>
-      </c>
-      <c r="G46" s="18">
-        <v>0</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F47" s="18">
-        <v>3930</v>
-      </c>
-      <c r="G47" s="18">
-        <v>0</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="16" t="s">
+      <c r="B46" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="18">
-        <v>3930</v>
-      </c>
-      <c r="G48" s="18">
-        <v>0</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="18">
-        <v>3930</v>
-      </c>
-      <c r="G49" s="18">
-        <v>0</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="22" t="s">
+      <c r="C46" s="32"/>
+      <c r="H46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="24">
-        <v>3930</v>
-      </c>
-      <c r="G50" s="24">
-        <v>0</v>
-      </c>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="26"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="32"/>
-      <c r="H55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="32"/>
-      <c r="H56" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H45:J45"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
